--- a/MULAN_universal_lesion_analysis/results/val_mined_MULAN trained on DeepLesion.xlsx
+++ b/MULAN_universal_lesion_analysis/results/val_mined_MULAN trained on DeepLesion.xlsx
@@ -403,16 +403,16 @@
         <v>784</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9392788955204723</v>
+        <v>0.9393485873122833</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8227040816326531</v>
+        <v>0.8239795918367347</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8248081841432224</v>
+        <v>0.8250319284802043</v>
       </c>
       <c r="H2" t="n">
         <v>0.8999999761581421</v>
@@ -431,7 +431,7 @@
         <v>589</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9348843776437598</v>
+        <v>0.934893636227914</v>
       </c>
       <c r="E3" t="n">
         <v>0.7828685258964143</v>
@@ -459,7 +459,7 @@
         <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.977239963047303</v>
+        <v>0.9772384920004472</v>
       </c>
       <c r="E4" t="n">
         <v>0.8407960199004975</v>
@@ -487,7 +487,7 @@
         <v>516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9407241014799155</v>
+        <v>0.9407354273633344</v>
       </c>
       <c r="E5" t="n">
         <v>0.8427299703264095</v>
@@ -515,16 +515,16 @@
         <v>403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8604642435214415</v>
+        <v>0.8604597400920801</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7448275862068966</v>
+        <v>0.7430555555555556</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2679900744416873</v>
+        <v>0.2655086848635236</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3941605839416058</v>
+        <v>0.3912248628884827</v>
       </c>
       <c r="H6" t="n">
         <v>0.8999999761581421</v>
@@ -543,7 +543,7 @@
         <v>347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9410090333764458</v>
+        <v>0.9409989157250224</v>
       </c>
       <c r="E7" t="n">
         <v>0.6967509025270758</v>
@@ -571,16 +571,16 @@
         <v>412</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8413929440389294</v>
+        <v>0.8414357593366877</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5489130434782609</v>
+        <v>0.5504087193460491</v>
       </c>
       <c r="F8" t="n">
         <v>0.4902912621359223</v>
       </c>
       <c r="G8" t="n">
-        <v>0.517948717948718</v>
+        <v>0.5186136071887035</v>
       </c>
       <c r="H8" t="n">
         <v>0.8999999761581421</v>
@@ -599,7 +599,7 @@
         <v>241</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9656687585016517</v>
+        <v>0.9656710446601053</v>
       </c>
       <c r="E9" t="n">
         <v>0.8102189781021898</v>
@@ -627,7 +627,7 @@
         <v>200</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9832139008620691</v>
+        <v>0.9831977370689655</v>
       </c>
       <c r="E10" t="n">
         <v>0.7931034482758621</v>
@@ -655,7 +655,7 @@
         <v>176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9789954061895551</v>
+        <v>0.9789863394584138</v>
       </c>
       <c r="E11" t="n">
         <v>0.7974683544303798</v>
@@ -683,16 +683,16 @@
         <v>195</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9657146006420591</v>
+        <v>0.9657449124402375</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3132530120481928</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="H12" t="n">
         <v>0.8999999761581421</v>
@@ -711,7 +711,7 @@
         <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9641678182097343</v>
+        <v>0.9642541839398127</v>
       </c>
       <c r="E13" t="n">
         <v>0.6363636363636364</v>
@@ -739,7 +739,7 @@
         <v>188</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8767739988154358</v>
+        <v>0.8767028110620073</v>
       </c>
       <c r="E14" t="n">
         <v>0.5142857142857142</v>
@@ -767,7 +767,7 @@
         <v>170</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9685733890586987</v>
+        <v>0.9685671511446573</v>
       </c>
       <c r="E15" t="n">
         <v>0.6493506493506493</v>
@@ -795,16 +795,16 @@
         <v>157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9862448556565138</v>
+        <v>0.9862750425131563</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7875</v>
+        <v>0.7901234567901234</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4012738853503185</v>
+        <v>0.4076433121019108</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5316455696202531</v>
+        <v>0.5378151260504203</v>
       </c>
       <c r="H16" t="n">
         <v>0.8999999761581421</v>
@@ -823,7 +823,7 @@
         <v>116</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9847138286526839</v>
+        <v>0.9847093849982225</v>
       </c>
       <c r="E17" t="n">
         <v>0.8315789473684211</v>
@@ -851,7 +851,7 @@
         <v>77</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9466475919229835</v>
+        <v>0.9466344670993483</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>130</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9755112229411296</v>
+        <v>0.9755172138349708</v>
       </c>
       <c r="E19" t="n">
         <v>0.7</v>
@@ -907,16 +907,16 @@
         <v>79</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9785700108206399</v>
+        <v>0.9786340382756126</v>
       </c>
       <c r="E20" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0379746835443038</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.09411764705882351</v>
       </c>
       <c r="H20" t="n">
         <v>0.8999999761581421</v>
@@ -935,7 +935,7 @@
         <v>120</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7859009125344353</v>
+        <v>0.7857567148760332</v>
       </c>
       <c r="E21" t="n">
         <v>0.3132530120481928</v>
@@ -963,7 +963,7 @@
         <v>114</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7598582579001572</v>
+        <v>0.7598695502917954</v>
       </c>
       <c r="E22" t="n">
         <v>0.2075471698113208</v>
@@ -991,7 +991,7 @@
         <v>82</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8209034521956162</v>
+        <v>0.8210270096621939</v>
       </c>
       <c r="E23" t="n">
         <v>0.2395209580838323</v>
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9785436267921146</v>
+        <v>0.9785856294802867</v>
       </c>
       <c r="E24" t="n">
         <v>0.8461538461538461</v>
@@ -1047,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9488226865416283</v>
+        <v>0.9489082315703928</v>
       </c>
       <c r="E25" t="n">
         <v>0.5925925925925926</v>
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9851776441738218</v>
+        <v>0.9851776441738217</v>
       </c>
       <c r="E26" t="n">
         <v>0.6190476190476191</v>
@@ -1131,7 +1131,7 @@
         <v>65</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9630568326700925</v>
+        <v>0.9630722868291929</v>
       </c>
       <c r="E28" t="n">
         <v>0.7536231884057971</v>
@@ -1159,16 +1159,16 @@
         <v>46</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8190568894657149</v>
+        <v>0.8190460739779365</v>
       </c>
       <c r="E29" t="n">
-        <v>0.171875</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="F29" t="n">
         <v>0.2391304347826087</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="H29" t="n">
         <v>0.8999999761581421</v>
@@ -1187,7 +1187,7 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9922904769869145</v>
+        <v>0.9922745482203585</v>
       </c>
       <c r="E30" t="n">
         <v>0.8333333333333334</v>
@@ -1215,7 +1215,7 @@
         <v>69</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9818457655922919</v>
+        <v>0.9818384718058686</v>
       </c>
       <c r="E31" t="n">
         <v>0.8648648648648649</v>
@@ -1243,7 +1243,7 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9817653812386035</v>
+        <v>0.9817728851969414</v>
       </c>
       <c r="E32" t="n">
         <v>0.6666666666666666</v>
@@ -1271,7 +1271,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9960219341974078</v>
+        <v>0.996011964107677</v>
       </c>
       <c r="E33" t="n">
         <v>0.8333333333333334</v>
@@ -1299,7 +1299,7 @@
         <v>83</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8850261665007724</v>
+        <v>0.8850322730353751</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>44</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9285197903488163</v>
+        <v>0.9284859027652268</v>
       </c>
       <c r="E35" t="n">
         <v>0.4</v>
@@ -1355,7 +1355,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9903305455993628</v>
+        <v>0.9903146156909598</v>
       </c>
       <c r="E36" t="n">
         <v>0.75</v>
@@ -1383,7 +1383,7 @@
         <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9103650455804988</v>
+        <v>0.9103784319237515</v>
       </c>
       <c r="E37" t="n">
         <v>0.1685393258426966</v>
@@ -1411,7 +1411,7 @@
         <v>40</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9808407738095237</v>
+        <v>0.9808531746031746</v>
       </c>
       <c r="E38" t="n">
         <v>0.2868852459016393</v>
@@ -1439,7 +1439,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9660326086956521</v>
+        <v>0.966017168972332</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>43</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9659654108758188</v>
+        <v>0.9658383299252533</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7339737140315389</v>
+        <v>0.7339948953115236</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9626574033868867</v>
+        <v>0.9626785846668714</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9787565616797901</v>
+        <v>0.9787360564304463</v>
       </c>
       <c r="E44" t="n">
         <v>0.5</v>
@@ -1607,7 +1607,7 @@
         <v>45</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9861318304878722</v>
+        <v>0.9861760318249627</v>
       </c>
       <c r="E45" t="n">
         <v>0.7096774193548387</v>
@@ -1635,7 +1635,7 @@
         <v>31</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9786539227399442</v>
+        <v>0.9786857825567503</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6489436127046313</v>
+        <v>0.6490135721281657</v>
       </c>
       <c r="E47" t="n">
         <v>0.01754385964912281</v>
@@ -1691,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7744237744237744</v>
+        <v>0.7743535743535743</v>
       </c>
       <c r="E48" t="n">
         <v>0.05970149253731343</v>
@@ -1719,7 +1719,7 @@
         <v>41</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9963686981782969</v>
+        <v>0.9963565938388912</v>
       </c>
       <c r="E49" t="n">
         <v>0.875</v>
@@ -1747,16 +1747,16 @@
         <v>37</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9323989665743009</v>
+        <v>0.9324525119473114</v>
       </c>
       <c r="E50" t="n">
-        <v>0.155688622754491</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="F50" t="n">
         <v>0.7027027027027027</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.2561576354679803</v>
       </c>
       <c r="H50" t="n">
         <v>0.8999999761581421</v>
@@ -1775,7 +1775,7 @@
         <v>28</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8601366582135813</v>
+        <v>0.8601894899971823</v>
       </c>
       <c r="E51" t="n">
         <v>0.1153846153846154</v>
@@ -1803,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9620098039215685</v>
+        <v>0.9619791666666666</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="n">
-        <v>0.989520779817294</v>
+        <v>0.9895037680962182</v>
       </c>
       <c r="E53" t="n">
         <v>0.75</v>
@@ -1859,7 +1859,7 @@
         <v>26</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8258241758241758</v>
+        <v>0.8260704812428952</v>
       </c>
       <c r="E54" t="n">
         <v>0.1594202898550725</v>
@@ -1887,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9933693516699411</v>
+        <v>0.9934184675834971</v>
       </c>
       <c r="E55" t="n">
         <v>0.4545454545454545</v>
@@ -1915,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="n">
-        <v>0.830689128775488</v>
+        <v>0.8312343255915385</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7224984805790375</v>
+        <v>0.7225371567489915</v>
       </c>
       <c r="E57" t="n">
         <v>0.0576923076923077</v>
@@ -1999,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9838630806845966</v>
+        <v>0.9839075350077795</v>
       </c>
       <c r="E59" t="n">
         <v>0.4</v>
@@ -2055,16 +2055,16 @@
         <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9406188605108055</v>
+        <v>0.9405943025540275</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="F61" t="n">
         <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0.8999999761581421</v>
@@ -2083,7 +2083,7 @@
         <v>21</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9546273546273546</v>
+        <v>0.9548379548379549</v>
       </c>
       <c r="E62" t="n">
         <v>0.1428571428571428</v>
@@ -2111,7 +2111,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9965976557848358</v>
+        <v>0.9965976557848357</v>
       </c>
       <c r="E63" t="n">
         <v>0.7272727272727273</v>
@@ -2139,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9534563236274728</v>
+        <v>0.9535007779506557</v>
       </c>
       <c r="E64" t="n">
         <v>0.5</v>
@@ -2167,7 +2167,7 @@
         <v>23</v>
       </c>
       <c r="D65" t="n">
-        <v>0.948929617827584</v>
+        <v>0.9490793216279219</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7765547877591313</v>
+        <v>0.7766205988812109</v>
       </c>
       <c r="E66" t="n">
         <v>0.125</v>
@@ -2251,16 +2251,16 @@
         <v>23</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9609486943689985</v>
+        <v>0.9610128531405718</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="F68" t="n">
         <v>0.6956521739130435</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2237762237762238</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="H68" t="n">
         <v>0.8999999761581421</v>
@@ -2279,7 +2279,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8511100255115888</v>
+        <v>0.8511643054877055</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>28</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7564983093829247</v>
+        <v>0.7563398140321217</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -2391,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9720530451866404</v>
+        <v>0.9721021611001965</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>21</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9235053235053235</v>
+        <v>0.9234117234117234</v>
       </c>
       <c r="E74" t="n">
         <v>0.1081081081081081</v>
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9163011695906433</v>
+        <v>0.9145955165692008</v>
       </c>
       <c r="E75" t="n">
         <v>0.75</v>
@@ -2475,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8553290766208251</v>
+        <v>0.8552554027504912</v>
       </c>
       <c r="E76" t="n">
         <v>0.1052631578947368</v>
@@ -2531,7 +2531,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9395865747943988</v>
+        <v>0.9396310291175817</v>
       </c>
       <c r="E78" t="n">
         <v>0.1052631578947368</v>
@@ -2587,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9483254627367964</v>
+        <v>0.9484883026651469</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7099233529028049</v>
+        <v>0.7099641226353555</v>
       </c>
       <c r="E81" t="n">
         <v>0.02083333333333333</v>
@@ -2643,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9691629955947136</v>
+        <v>0.9691253435746827</v>
       </c>
       <c r="E82" t="n">
         <v>0.1818181818181818</v>
@@ -2699,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9917360770863956</v>
+        <v>0.9917687408133269</v>
       </c>
       <c r="E84" t="n">
         <v>0.1530612244897959</v>
@@ -2727,7 +2727,7 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8859778311758778</v>
+        <v>0.8859003178048213</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9201155812402756</v>
+        <v>0.9202044898866415</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -2839,7 +2839,7 @@
         <v>23</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9174062747278598</v>
+        <v>0.9173635022134776</v>
       </c>
       <c r="E89" t="n">
         <v>0.2941176470588235</v>
@@ -2867,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8019533369506241</v>
+        <v>0.801953336950624</v>
       </c>
       <c r="E90" t="n">
         <v>0.1333333333333333</v>
@@ -2895,7 +2895,7 @@
         <v>28</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9644265990419838</v>
+        <v>0.9644618202310511</v>
       </c>
       <c r="E91" t="n">
         <v>0.6956521739130435</v>
@@ -2923,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>0.96868896484375</v>
+        <v>0.968658447265625</v>
       </c>
       <c r="E92" t="n">
         <v>0.2</v>
@@ -2951,7 +2951,7 @@
         <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9801025390625</v>
+        <v>0.98004150390625</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>0.913459977269037</v>
+        <v>0.9136223412891702</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -3035,7 +3035,7 @@
         <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9726221042610277</v>
+        <v>0.9725355566454144</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9919537675038897</v>
+        <v>0.9919537675038899</v>
       </c>
       <c r="E97" t="n">
         <v>0.6666666666666666</v>
@@ -3091,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9731182795698925</v>
+        <v>0.9731671554252199</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9906498746047323</v>
+        <v>0.9905680950823248</v>
       </c>
       <c r="E99" t="n">
         <v>0.1931818181818182</v>
@@ -3175,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9985510805500982</v>
+        <v>0.9985756385068763</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8894420982440543</v>
+        <v>0.8894865525672372</v>
       </c>
       <c r="E102" t="n">
         <v>0.1428571428571428</v>
@@ -3231,7 +3231,7 @@
         <v>18</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6825591538545415</v>
+        <v>0.6827499727401591</v>
       </c>
       <c r="E103" t="n">
         <v>0.03125</v>
@@ -3259,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9868313763861709</v>
+        <v>0.9868721461187214</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>14</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9898558835875192</v>
+        <v>0.9898209038757521</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -3343,16 +3343,16 @@
         <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9784563898765949</v>
+        <v>0.9783866694554835</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0821917808219178</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F107" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="G107" t="n">
-        <v>0.15</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="H107" t="n">
         <v>0.8999999761581421</v>
@@ -3371,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8673397383705151</v>
+        <v>0.8673940183466319</v>
       </c>
       <c r="E108" t="n">
         <v>0.04054054054054054</v>
@@ -3483,7 +3483,7 @@
         <v>26</v>
       </c>
       <c r="D112" t="n">
-        <v>0.946684350132626</v>
+        <v>0.9466085638499432</v>
       </c>
       <c r="E112" t="n">
         <v>0.2</v>
@@ -3511,7 +3511,7 @@
         <v>21</v>
       </c>
       <c r="D113" t="n">
-        <v>0.708061308061308</v>
+        <v>0.7072423072423072</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>16</v>
       </c>
       <c r="D117" t="n">
-        <v>0.960876225490196</v>
+        <v>0.9609375</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9186362685630621</v>
+        <v>0.9184968277208394</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>0.964111328125</v>
+        <v>0.9642333984375</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
@@ -3847,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7915448343079922</v>
+        <v>0.7914230019493178</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -3931,16 +3931,16 @@
         <v>10</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7845552297165201</v>
+        <v>0.7845063538611926</v>
       </c>
       <c r="E128" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0625</v>
       </c>
       <c r="F128" t="n">
         <v>0.1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.07407407407407408</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H128" t="n">
         <v>0.8999999761581421</v>
@@ -3959,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6499756335282652</v>
+        <v>0.6500974658869396</v>
       </c>
       <c r="E129" t="n">
         <v>0.03125</v>
@@ -3987,7 +3987,7 @@
         <v>10</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9153470185728251</v>
+        <v>0.9153958944281525</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9171539961013645</v>
+        <v>0.9167884990253412</v>
       </c>
       <c r="E131" t="n">
         <v>0.06666666666666667</v>
@@ -4071,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9381764992686494</v>
+        <v>0.9379814724524622</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9089912280701754</v>
+        <v>0.9082602339181287</v>
       </c>
       <c r="E136" t="n">
         <v>0.06666666666666667</v>
@@ -4239,7 +4239,7 @@
         <v>3</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7288520863776586</v>
+        <v>0.7293391784380581</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9257996427991557</v>
+        <v>0.9266114628998214</v>
       </c>
       <c r="E140" t="n">
         <v>0.01785714285714286</v>
@@ -4295,7 +4295,7 @@
         <v>34</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9850032000930936</v>
+        <v>0.9850904753592832</v>
       </c>
       <c r="E141" t="n">
         <v>0.3333333333333333</v>
@@ -4379,7 +4379,7 @@
         <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8059628543499511</v>
+        <v>0.8056207233626589</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9329833984375</v>
+        <v>0.93292236328125</v>
       </c>
       <c r="E145" t="n">
         <v>0.06060606060606061</v>
@@ -4519,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5920155793573515</v>
+        <v>0.5925024342745862</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>24</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9645464238845144</v>
+        <v>0.964607939632546</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>9</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9323128697823372</v>
+        <v>0.932367149758454</v>
       </c>
       <c r="E151" t="n">
         <v>0.5</v>
@@ -4603,7 +4603,7 @@
         <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>0.88983154296875</v>
+        <v>0.88958740234375</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1303783081669102</v>
+        <v>0.1302159441467771</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9876603344698814</v>
+        <v>0.9879850625101477</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -4771,16 +4771,16 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9417886178861788</v>
+        <v>0.9426016260162602</v>
       </c>
       <c r="E158" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F158" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0.8999999761581421</v>
@@ -4799,7 +4799,7 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8720703125</v>
+        <v>0.87255859375</v>
       </c>
       <c r="E159" t="n">
         <v>0.8</v>
@@ -4939,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9270985549602209</v>
+        <v>0.9266114628998213</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>7</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8351809244927838</v>
+        <v>0.8348323223872272</v>
       </c>
       <c r="E166" t="n">
         <v>0.07692307692307693</v>
@@ -5023,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="D167" t="n">
-        <v>0.943939393939394</v>
+        <v>0.9437927663734116</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -5051,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8936515668127942</v>
+        <v>0.8934892027926611</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -5079,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9868356899073623</v>
+        <v>0.9869332033154559</v>
       </c>
       <c r="E169" t="n">
         <v>0.1304347826086956</v>
@@ -5191,16 +5191,16 @@
         <v/>
       </c>
       <c r="D173" t="n">
-        <v>0.9202127703796441</v>
+        <v>0.9202119828930293</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5139825769501775</v>
+        <v>0.513696900761214</v>
       </c>
       <c r="F173" t="n">
-        <v>0.2479865855446425</v>
+        <v>0.2480616954268757</v>
       </c>
       <c r="G173" t="n">
-        <v>0.2113570018334908</v>
+        <v>0.2115417968572316</v>
       </c>
       <c r="H173" t="n">
         <v/>
